--- a/media/medin_download_ur.xlsx
+++ b/media/medin_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07063686-C808-7743-8A62-32622671E4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20757875-0342-B24D-9813-748D9D738A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1420" windowWidth="27840" windowHeight="16740" xr2:uid="{B2142904-991E-8346-A7E2-EABB1F693248}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"> "Утверждаю"</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Сержанов Н.Н</t>
-  </si>
-  <si>
-    <t>АКТ сверки по физическим лицам за Август 2024 г.</t>
   </si>
   <si>
     <t>№ передатчика</t>
@@ -280,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,6 +399,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -718,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598249F4-8A28-8C4D-A2EB-87F46AFF7A4D}">
   <dimension ref="A1:L425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,9 +839,7 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="38"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -869,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>5</v>
@@ -881,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>7</v>
@@ -890,13 +892,13 @@
         <v>8</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>10</v>
@@ -1210,61 +1212,61 @@
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
     </row>
-    <row r="32" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-    </row>
-    <row r="33" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-    </row>
-    <row r="34" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-    </row>
-    <row r="35" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
+    <row r="32" spans="1:12" s="47" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="1:12" s="47" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+    </row>
+    <row r="34" spans="1:12" s="47" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+    </row>
+    <row r="35" spans="1:12" s="47" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36"/>
